--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
